--- a/Electric Crew.xlsx
+++ b/Electric Crew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CurrentProjects\Avista\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CurrentProjects\Avista\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
   <si>
     <t>Monday</t>
   </si>
@@ -219,6 +219,54 @@
   </si>
   <si>
     <t xml:space="preserve">Crew - 152                                       </t>
+  </si>
+  <si>
+    <t>Gust1</t>
+  </si>
+  <si>
+    <t>Gust2</t>
+  </si>
+  <si>
+    <t>Gust3</t>
+  </si>
+  <si>
+    <t>Gust4</t>
+  </si>
+  <si>
+    <t>G Thompson1</t>
+  </si>
+  <si>
+    <t>G Thompson2</t>
+  </si>
+  <si>
+    <t>G Thompson3</t>
+  </si>
+  <si>
+    <t>G Thompson4</t>
+  </si>
+  <si>
+    <t>test notes</t>
+  </si>
+  <si>
+    <t>test notes 2</t>
+  </si>
+  <si>
+    <t>test notes 3</t>
+  </si>
+  <si>
+    <t>test notes 4</t>
+  </si>
+  <si>
+    <t>test notes 5</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test leave</t>
+  </si>
+  <si>
+    <t>test leave 2</t>
   </si>
 </sst>
 </file>
@@ -228,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,14 +324,6 @@
     <font>
       <b/>
       <sz val="24"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,7 +543,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -562,7 +602,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,17 +676,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -688,55 +727,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,34 +822,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>697605</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>251539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>494217</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>149307</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3998352</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>44000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="95 and Hanley 006.jpg"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35403486" y="21102570"/>
-          <a:ext cx="8945977" cy="6709483"/>
+          <a:off x="697605" y="14270729"/>
+          <a:ext cx="3300747" cy="2475560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -821,80 +866,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1435457</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>218648</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>898838</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>225111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3461197</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>818345</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>259322</xdr:rowOff>
+      <xdr:rowOff>57417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6" descr="C:\IETemp\Temporary Internet Files\Content.IE5\QBKS4OK0\MC900338020[1].wmf"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1435457" y="13969528"/>
-          <a:ext cx="2025740" cy="2992083"/>
+          <a:off x="5634507" y="14244301"/>
+          <a:ext cx="3353873" cy="2515405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>53662</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>125074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>532058</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>16099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7" descr="C:\IETemp\Temporary Internet Files\Content.IE5\I5TALMS5\MC900235257[1].wmf"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6506514" y="14144264"/>
-          <a:ext cx="2195579" cy="2842434"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -902,119 +911,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1717182</xdr:colOff>
+      <xdr:colOff>384576</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>150578</xdr:rowOff>
+      <xdr:rowOff>80492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1059822</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>818880</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>30586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Picture 8" descr="C:\IETemp\Temporary Internet Files\Content.IE5\3O00OYL7\MC900212415[1].wmf"/>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="11604400" y="14169768"/>
-          <a:ext cx="2777007" cy="2656346"/>
+          <a:off x="10271794" y="14099682"/>
+          <a:ext cx="3868671" cy="2901503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>308556</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>187816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1690352</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>13008</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1033" name="Picture 9" descr="C:\IETemp\Temporary Internet Files\Content.IE5\KLCCTXZ3\MC900222041[1].wmf"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5044225" y="27595668"/>
-          <a:ext cx="1381796" cy="1435051"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>160441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1381796</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>253943</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 9" descr="C:\IETemp\Temporary Internet Files\Content.IE5\KLCCTXZ3\MC900222041[1].wmf"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11604401" y="27568293"/>
-          <a:ext cx="1381796" cy="1435051"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1308,14 +1241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1328,38 +1261,38 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
@@ -1379,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="40"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
@@ -1401,10 +1334,10 @@
       <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1413,7 +1346,7 @@
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1423,17 +1356,17 @@
         <v>6</v>
       </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="40"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1443,10 +1376,10 @@
         <v>30</v>
       </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1455,7 +1388,7 @@
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1465,10 +1398,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="40"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1477,156 +1410,160 @@
       <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="40"/>
+      <c r="G10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="51"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="16"/>
       <c r="F11" s="3"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="40"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="68"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="18"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="40"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="65" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="51"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="40"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="40"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="16"/>
-      <c r="H16" s="40"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="40"/>
+      <c r="G17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="68"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="31"/>
       <c r="F18" s="6"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="40"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -1639,14 +1576,14 @@
         <v>28</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="40"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1658,17 +1595,19 @@
       <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="40"/>
+      <c r="G20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1681,16 +1620,16 @@
         <v>34</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="40"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1699,20 +1638,20 @@
       <c r="E22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="20"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1721,24 +1660,24 @@
       <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="37" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="40"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="67"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="40"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -1747,20 +1686,20 @@
       <c r="C25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="42" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="15"/>
-      <c r="H25" s="40"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="70"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1776,11 +1715,13 @@
       <c r="F26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="40"/>
+      <c r="G26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="70" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1799,10 +1740,10 @@
         <v>50</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="40"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1821,10 +1762,10 @@
         <v>39</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="40"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1839,32 +1780,32 @@
         <v>27</v>
       </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="40"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="72"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="36"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="40"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="68" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="33"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="5"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="40"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>9</v>
@@ -1872,13 +1813,13 @@
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="3"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="40"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>53</v>
@@ -1886,23 +1827,25 @@
       <c r="D33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="40"/>
+      <c r="G33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="51"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="3"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="40"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
         <v>36</v>
@@ -1910,82 +1853,82 @@
       <c r="D35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="50"/>
       <c r="F35" s="3"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="40"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="72"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="34"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="29"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="40"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="58"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="78"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="40"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="17"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="40"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
@@ -2007,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="40"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23" t="s">
@@ -2031,10 +1974,10 @@
       <c r="G44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="40"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="74">
+      <c r="A45" s="73">
         <v>158</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -2053,16 +1996,16 @@
         <v>24</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="40"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="75">
+      <c r="A46" s="74">
         <v>159</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="4"/>
@@ -2072,39 +2015,41 @@
       <c r="F46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="40"/>
+      <c r="G46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="75">
+      <c r="A47" s="74">
         <v>160</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="25"/>
-      <c r="H47" s="40"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="57"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="5" t="s">
         <v>51</v>
       </c>
@@ -2113,13 +2058,13 @@
         <v>14</v>
       </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="40"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="74">
+      <c r="A49" s="73">
         <v>137</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="63" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="1"/>
@@ -2130,242 +2075,244 @@
       <c r="F49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="40"/>
+      <c r="G49" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="74"/>
-      <c r="B50" s="64"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="40"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="72"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="40"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="40"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="26"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="40"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="26"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="40"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="87"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="40"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="87"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="40"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="87"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="40"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="87"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="40"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="87"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="40"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="87"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="40"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="39"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="87"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="40"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="87"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="40"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="87"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="40"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="39"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="87"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="40"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="56" t="s">
+      <c r="B65" s="91"/>
+      <c r="C65" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="93"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="56" t="s">
+      <c r="D65" s="92"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="G65" s="82"/>
-      <c r="H65" s="40"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="87"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="40"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="27"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="78"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="77"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="70" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="62"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="61"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="100" t="s">
+      <c r="A71" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="101"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="102"/>
-      <c r="H71" s="40"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="39"/>
     </row>
     <row r="72" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="103"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="104"/>
-      <c r="F72" s="104"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="40"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="104"/>
+      <c r="H72" s="39"/>
     </row>
     <row r="73" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B73" s="5"/>
@@ -2377,11 +2324,13 @@
         <v>27</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="40"/>
+      <c r="G73" s="15">
+        <v>1</v>
+      </c>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="72" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -2399,11 +2348,13 @@
       <c r="F74" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="40"/>
+      <c r="G74" s="16">
+        <v>2</v>
+      </c>
+      <c r="H74" s="39"/>
     </row>
     <row r="75" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="72" t="s">
         <v>47</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2421,21 +2372,25 @@
       <c r="F75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="40"/>
+      <c r="G75" s="16">
+        <v>3</v>
+      </c>
+      <c r="H75" s="39"/>
     </row>
     <row r="76" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="40"/>
+      <c r="G76" s="16">
+        <v>4</v>
+      </c>
+      <c r="H76" s="39"/>
     </row>
     <row r="77" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>55</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -2449,11 +2404,13 @@
       <c r="F77" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="40"/>
+      <c r="G77" s="22">
+        <v>5</v>
+      </c>
+      <c r="H77" s="39"/>
     </row>
     <row r="78" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="72" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -2471,75 +2428,85 @@
       <c r="F78" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="40"/>
+      <c r="G78" s="22">
+        <v>6</v>
+      </c>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="72" t="s">
         <v>44</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="40"/>
+        <v>68</v>
+      </c>
+      <c r="G79" s="22">
+        <v>7</v>
+      </c>
+      <c r="H79" s="39"/>
     </row>
     <row r="80" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="72" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="40"/>
+        <v>72</v>
+      </c>
+      <c r="G80" s="22">
+        <v>8</v>
+      </c>
+      <c r="H80" s="39"/>
     </row>
     <row r="81" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="40"/>
+      <c r="G81" s="22">
+        <v>9</v>
+      </c>
+      <c r="H81" s="39"/>
     </row>
     <row r="82" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="40"/>
+      <c r="G82" s="22">
+        <v>10</v>
+      </c>
+      <c r="H82" s="39"/>
     </row>
     <row r="83" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="72" t="s">
         <v>44</v>
       </c>
       <c r="B83" s="2"/>
@@ -2555,284 +2522,296 @@
       <c r="F83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="40"/>
+      <c r="G83" s="30">
+        <v>11</v>
+      </c>
+      <c r="H83" s="39"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="66"/>
-      <c r="B84" s="42" t="s">
+      <c r="A84" s="65"/>
+      <c r="B84" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="61"/>
-      <c r="E84" s="15"/>
+      <c r="D84" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="F84" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G84" s="63"/>
-      <c r="H84" s="40"/>
+      <c r="G84" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" s="39"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="67"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="51"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="50"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="40"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="67"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="49"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="48"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="40"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="39"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="67" t="s">
+      <c r="A87" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="49"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="48"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="40"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="39"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="67"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="51"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="50"/>
       <c r="E88" s="16"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="40"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="39"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="67"/>
-      <c r="B89" s="48"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="49"/>
+      <c r="D89" s="48"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="40"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="39"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="67" t="s">
+      <c r="A90" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B90" s="44"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="20"/>
-      <c r="D90" s="45"/>
+      <c r="D90" s="44"/>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="40"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="67"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="20"/>
-      <c r="D91" s="45"/>
+      <c r="D91" s="44"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="40"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="39"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="67"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="66"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="45"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="40"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="39"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="67"/>
-      <c r="B93" s="44"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="45"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="40"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="39"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="67"/>
-      <c r="B94" s="44"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="20"/>
-      <c r="D94" s="45"/>
+      <c r="D94" s="44"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="40"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="39"/>
     </row>
     <row r="95" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="68"/>
-      <c r="B95" s="58"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="57"/>
       <c r="C95" s="19"/>
-      <c r="D95" s="59"/>
+      <c r="D95" s="58"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="40"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="39"/>
     </row>
     <row r="96" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="38"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="40"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="39"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="108" t="s">
+      <c r="A97" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B97" s="109"/>
-      <c r="C97" s="109"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="109"/>
-      <c r="F97" s="109"/>
-      <c r="G97" s="110"/>
-      <c r="H97" s="40"/>
+      <c r="B97" s="108"/>
+      <c r="C97" s="108"/>
+      <c r="D97" s="108"/>
+      <c r="E97" s="108"/>
+      <c r="F97" s="108"/>
+      <c r="G97" s="109"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="111"/>
-      <c r="B98" s="112"/>
-      <c r="C98" s="112"/>
-      <c r="D98" s="112"/>
-      <c r="E98" s="112"/>
-      <c r="F98" s="112"/>
-      <c r="G98" s="113"/>
-      <c r="H98" s="40"/>
+      <c r="A98" s="110"/>
+      <c r="B98" s="111"/>
+      <c r="C98" s="111"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="111"/>
+      <c r="G98" s="112"/>
+      <c r="H98" s="39"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="111"/>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="113"/>
-      <c r="H99" s="40"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="39"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="111"/>
-      <c r="B100" s="112"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="112"/>
-      <c r="G100" s="113"/>
-      <c r="H100" s="40"/>
+      <c r="A100" s="110"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="111"/>
+      <c r="D100" s="111"/>
+      <c r="E100" s="111"/>
+      <c r="F100" s="111"/>
+      <c r="G100" s="112"/>
+      <c r="H100" s="39"/>
     </row>
     <row r="101" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="114"/>
-      <c r="B101" s="115"/>
-      <c r="C101" s="115"/>
-      <c r="D101" s="115"/>
-      <c r="E101" s="115"/>
-      <c r="F101" s="115"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="40"/>
+      <c r="A101" s="113"/>
+      <c r="B101" s="114"/>
+      <c r="C101" s="114"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="114"/>
+      <c r="F101" s="114"/>
+      <c r="G101" s="115"/>
+      <c r="H101" s="39"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="33"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="40"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="38"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="38"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="51"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="38"/>
-      <c r="B105" s="51"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="38"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="38"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="38"/>
-      <c r="B108" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C108" s="40"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
     </row>
     <row r="109" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="34"/>
-      <c r="B109" s="77"/>
-      <c r="C109" s="78"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="78"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2845,6 +2824,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Electric Crew.xlsx
+++ b/Electric Crew.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Screen 1</t>
   </si>
@@ -162,37 +162,19 @@
     <t>Information</t>
   </si>
   <si>
-    <t>Line One</t>
-  </si>
-  <si>
     <t>Union Business</t>
   </si>
   <si>
-    <t>Line Two</t>
-  </si>
-  <si>
     <t>Hensley</t>
   </si>
   <si>
     <t>Lite Duty</t>
   </si>
   <si>
-    <t>BPI</t>
-  </si>
-  <si>
-    <t>Sandpoint</t>
-  </si>
-  <si>
     <t>Spokane</t>
   </si>
   <si>
-    <t>STD</t>
-  </si>
-  <si>
     <t>Harrison</t>
-  </si>
-  <si>
-    <t>One Leave</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -209,7 +191,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -221,17 +203,22 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -290,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -362,30 +349,31 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="9"/>
       </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="9"/>
       </right>
       <top style="thin">
         <color indexed="9"/>
       </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -407,12 +395,28 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
@@ -501,17 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="8"/>
@@ -573,6 +566,15 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="8"/>
@@ -588,19 +590,112 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="9"/>
+      <right style="medium">
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="9"/>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
@@ -610,15 +705,25 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -627,20 +732,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -649,163 +754,169 @@
     <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="18" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="18" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -820,119 +931,125 @@
     <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2235,608 +2352,608 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="24.5" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s" s="13">
+      <c r="A5" s="14"/>
+      <c r="B5" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="F5" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" ht="21.6" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19">
         <v>42058</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="19">
         <f>B6+1</f>
         <v>42059</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <f>C6+1</f>
         <v>42060</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="19">
         <f>D6+1</f>
         <v>42061</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="19">
         <f>E6+1</f>
         <v>42062</v>
       </c>
-      <c r="G6" t="s" s="18">
+      <c r="G6" t="s" s="20">
         <v>7</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" ht="24.5" customHeight="1">
-      <c r="A7" t="s" s="19">
+      <c r="A7" t="s" s="21">
         <v>8</v>
       </c>
-      <c r="B7" t="s" s="20">
+      <c r="B7" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="C7" t="s" s="20">
+      <c r="C7" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="D7" t="s" s="20">
+      <c r="D7" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="E7" t="s" s="20">
+      <c r="E7" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="F7" t="s" s="20">
+      <c r="F7" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="24" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" t="s" s="23">
+      <c r="A8" s="24"/>
+      <c r="B8" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="C8" t="s" s="23">
+      <c r="C8" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="D8" t="s" s="23">
+      <c r="D8" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="E8" t="s" s="23">
+      <c r="E8" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="23">
+      <c r="F8" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" ht="24" customHeight="1">
-      <c r="A9" t="s" s="25">
+      <c r="A9" t="s" s="27">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="23">
+      <c r="B9" t="s" s="25">
         <v>11</v>
       </c>
-      <c r="C9" t="s" s="23">
+      <c r="C9" t="s" s="25">
         <v>11</v>
       </c>
-      <c r="D9" t="s" s="23">
+      <c r="D9" t="s" s="25">
         <v>11</v>
       </c>
-      <c r="E9" t="s" s="23">
+      <c r="E9" t="s" s="25">
         <v>11</v>
       </c>
-      <c r="F9" t="s" s="23">
+      <c r="F9" t="s" s="25">
         <v>11</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="24" customHeight="1">
-      <c r="A10" t="s" s="25">
+      <c r="A10" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="B10" t="s" s="23">
+      <c r="B10" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="C10" t="s" s="23">
+      <c r="C10" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="D10" t="s" s="23">
+      <c r="D10" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="23">
+      <c r="E10" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="23">
+      <c r="F10" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="24" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" t="s" s="23">
+      <c r="A11" s="24"/>
+      <c r="B11" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="C11" t="s" s="23">
+      <c r="C11" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="D11" t="s" s="23">
+      <c r="D11" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="F11" t="s" s="23">
+      <c r="F11" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" ht="21.6" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" ht="24.5" customHeight="1">
-      <c r="A13" t="s" s="19">
+      <c r="A13" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="20">
+      <c r="B13" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="C13" t="s" s="20">
+      <c r="C13" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="D13" t="s" s="20">
+      <c r="D13" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="E13" t="s" s="20">
+      <c r="E13" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="F13" t="s" s="20">
+      <c r="F13" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" ht="24" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" t="s" s="23">
+      <c r="A14" s="24"/>
+      <c r="B14" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="23">
+      <c r="C14" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="D14" t="s" s="23">
+      <c r="D14" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="F14" t="s" s="23">
+      <c r="F14" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="24" customHeight="1">
-      <c r="A15" t="s" s="25">
+      <c r="A15" t="s" s="27">
         <v>16</v>
       </c>
-      <c r="B15" t="s" s="23">
+      <c r="B15" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="C15" t="s" s="23">
+      <c r="C15" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="23">
+      <c r="D15" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="F15" t="s" s="23">
+      <c r="F15" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" ht="24" customHeight="1">
-      <c r="A16" t="s" s="25">
+      <c r="A16" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="B16" t="s" s="23">
+      <c r="B16" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="C16" t="s" s="23">
+      <c r="C16" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="D16" t="s" s="23">
+      <c r="D16" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="23">
+      <c r="E16" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="F16" t="s" s="23">
+      <c r="F16" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="24" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" t="s" s="23">
+      <c r="A17" s="24"/>
+      <c r="B17" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="C17" t="s" s="23">
+      <c r="C17" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="D17" t="s" s="23">
+      <c r="D17" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="E17" t="s" s="23">
+      <c r="E17" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="23">
+      <c r="F17" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" ht="21.6" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" t="s" s="29">
+      <c r="A18" s="28"/>
+      <c r="B18" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="C18" t="s" s="29">
+      <c r="C18" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="D18" t="s" s="29">
+      <c r="D18" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="E18" t="s" s="29">
+      <c r="E18" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="F18" t="s" s="29">
+      <c r="F18" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" ht="24.5" customHeight="1">
-      <c r="A19" t="s" s="19">
+      <c r="A19" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="30">
+      <c r="B19" t="s" s="32">
         <v>23</v>
       </c>
-      <c r="C19" t="s" s="30">
+      <c r="C19" t="s" s="32">
         <v>23</v>
       </c>
-      <c r="D19" t="s" s="30">
+      <c r="D19" t="s" s="32">
         <v>23</v>
       </c>
-      <c r="E19" t="s" s="30">
+      <c r="E19" t="s" s="32">
         <v>23</v>
       </c>
-      <c r="F19" t="s" s="30">
+      <c r="F19" t="s" s="32">
         <v>23</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="15"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" ht="24" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" t="s" s="23">
+      <c r="A20" s="24"/>
+      <c r="B20" t="s" s="25">
         <v>24</v>
       </c>
-      <c r="C20" t="s" s="23">
+      <c r="C20" t="s" s="25">
         <v>24</v>
       </c>
-      <c r="D20" t="s" s="23">
+      <c r="D20" t="s" s="25">
         <v>24</v>
       </c>
-      <c r="E20" t="s" s="23">
+      <c r="E20" t="s" s="25">
         <v>24</v>
       </c>
-      <c r="F20" t="s" s="23">
+      <c r="F20" t="s" s="25">
         <v>24</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" ht="24" customHeight="1">
-      <c r="A21" t="s" s="25">
+      <c r="A21" t="s" s="27">
         <v>23</v>
       </c>
-      <c r="B21" t="s" s="23">
+      <c r="B21" t="s" s="25">
         <v>25</v>
       </c>
-      <c r="C21" t="s" s="23">
+      <c r="C21" t="s" s="25">
         <v>25</v>
       </c>
-      <c r="D21" t="s" s="23">
+      <c r="D21" t="s" s="25">
         <v>25</v>
       </c>
-      <c r="E21" t="s" s="23">
+      <c r="E21" t="s" s="25">
         <v>25</v>
       </c>
-      <c r="F21" t="s" s="23">
+      <c r="F21" t="s" s="25">
         <v>25</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" ht="24" customHeight="1">
-      <c r="A22" t="s" s="25">
+      <c r="A22" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="B22" t="s" s="23">
+      <c r="B22" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="C22" t="s" s="23">
+      <c r="C22" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="D22" t="s" s="23">
+      <c r="D22" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="E22" t="s" s="23">
+      <c r="E22" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="F22" t="s" s="23">
+      <c r="F22" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" ht="24" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" t="s" s="23">
+      <c r="A23" s="24"/>
+      <c r="B23" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="C23" t="s" s="23">
+      <c r="C23" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="D23" t="s" s="23">
+      <c r="D23" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="E23" t="s" s="23">
+      <c r="E23" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="F23" t="s" s="23">
+      <c r="F23" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="15"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" ht="21.6" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" t="s" s="33">
+      <c r="A24" s="34"/>
+      <c r="B24" t="s" s="35">
         <v>28</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" ht="24.5" customHeight="1">
-      <c r="A25" t="s" s="19">
+      <c r="A25" t="s" s="21">
         <v>29</v>
       </c>
-      <c r="B25" t="s" s="20">
+      <c r="B25" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="C25" t="s" s="20">
+      <c r="C25" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="D25" t="s" s="20">
+      <c r="D25" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="E25" t="s" s="20">
+      <c r="E25" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="F25" t="s" s="20">
+      <c r="F25" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" ht="24" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" t="s" s="23">
+      <c r="A26" s="24"/>
+      <c r="B26" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="23">
+      <c r="C26" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="D26" t="s" s="23">
+      <c r="D26" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="E26" t="s" s="23">
+      <c r="E26" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="F26" t="s" s="23">
+      <c r="F26" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" ht="24" customHeight="1">
-      <c r="A27" t="s" s="25">
+      <c r="A27" t="s" s="27">
         <v>32</v>
       </c>
-      <c r="B27" t="s" s="23">
+      <c r="B27" t="s" s="25">
         <v>33</v>
       </c>
-      <c r="C27" t="s" s="23">
+      <c r="C27" t="s" s="25">
         <v>33</v>
       </c>
-      <c r="D27" t="s" s="23">
+      <c r="D27" t="s" s="25">
         <v>33</v>
       </c>
-      <c r="E27" t="s" s="23">
+      <c r="E27" t="s" s="25">
         <v>33</v>
       </c>
-      <c r="F27" t="s" s="23">
+      <c r="F27" t="s" s="25">
         <v>33</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" ht="24" customHeight="1">
-      <c r="A28" t="s" s="25">
+      <c r="A28" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" ht="24" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" t="s" s="23">
+      <c r="A29" s="24"/>
+      <c r="B29" t="s" s="25">
         <v>34</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" t="s" s="23">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" t="s" s="25">
         <v>34</v>
       </c>
-      <c r="F29" t="s" s="23">
+      <c r="F29" t="s" s="25">
         <v>34</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" ht="21.6" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" t="s" s="34">
+      <c r="A30" s="28"/>
+      <c r="B30" t="s" s="36">
         <v>35</v>
       </c>
-      <c r="C30" t="s" s="34">
+      <c r="C30" t="s" s="36">
         <v>35</v>
       </c>
-      <c r="D30" t="s" s="34">
+      <c r="D30" t="s" s="36">
         <v>35</v>
       </c>
-      <c r="E30" t="s" s="34">
+      <c r="E30" t="s" s="36">
         <v>35</v>
       </c>
-      <c r="F30" t="s" s="34">
+      <c r="F30" t="s" s="36">
         <v>35</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="15"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" ht="24.5" customHeight="1">
-      <c r="A31" t="s" s="19">
+      <c r="A31" t="s" s="21">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" ht="24" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="15"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" ht="24" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" ht="24" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" ht="24" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" ht="21.6" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="15"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" ht="21.6" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" ht="24.5" customHeight="1">
       <c r="A38" s="5"/>
@@ -2846,396 +2963,396 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" ht="21.6" customHeight="1">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" ht="21.6" customHeight="1">
-      <c r="A40" t="s" s="41">
+      <c r="A40" t="s" s="42">
         <v>37</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" t="s" s="43">
+      <c r="A41" s="43"/>
+      <c r="B41" t="s" s="44">
         <v>38</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="15"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" ht="21.75" customHeight="1">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="15"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" ht="24.5" customHeight="1">
-      <c r="A43" t="s" s="13">
+      <c r="A43" t="s" s="15">
         <v>39</v>
       </c>
-      <c r="B43" t="s" s="13">
+      <c r="B43" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C43" t="s" s="13">
+      <c r="C43" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D43" t="s" s="13">
+      <c r="D43" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E43" t="s" s="13">
+      <c r="E43" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F43" t="s" s="13">
+      <c r="F43" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" ht="21.6" customHeight="1">
-      <c r="A44" t="s" s="18">
+      <c r="A44" t="s" s="20">
         <v>40</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="19">
         <f>B6</f>
         <v>42058</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="19">
         <f>C6</f>
         <v>42059</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="19">
         <f>D6</f>
         <v>42060</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="19">
         <f>E6</f>
         <v>42061</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="19">
         <f>F6</f>
         <v>42062</v>
       </c>
-      <c r="G44" t="s" s="18">
+      <c r="G44" t="s" s="20">
         <v>7</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" ht="21.6" customHeight="1">
-      <c r="A45" s="50">
+      <c r="A45" s="52">
         <v>158</v>
       </c>
-      <c r="B45" t="s" s="51">
+      <c r="B45" t="s" s="53">
         <v>41</v>
       </c>
-      <c r="C45" t="s" s="51">
+      <c r="C45" t="s" s="53">
         <v>41</v>
       </c>
-      <c r="D45" t="s" s="51">
+      <c r="D45" t="s" s="53">
         <v>41</v>
       </c>
-      <c r="E45" t="s" s="51">
+      <c r="E45" t="s" s="53">
         <v>41</v>
       </c>
-      <c r="F45" t="s" s="51">
+      <c r="F45" t="s" s="53">
         <v>41</v>
       </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="15"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" ht="21.6" customHeight="1">
-      <c r="A46" s="50">
+      <c r="A46" s="52">
         <v>159</v>
       </c>
-      <c r="B46" t="s" s="51">
+      <c r="B46" t="s" s="53">
         <v>42</v>
       </c>
-      <c r="C46" t="s" s="51">
+      <c r="C46" t="s" s="53">
         <v>42</v>
       </c>
-      <c r="D46" t="s" s="51">
+      <c r="D46" t="s" s="53">
         <v>42</v>
       </c>
-      <c r="E46" t="s" s="51">
+      <c r="E46" t="s" s="53">
         <v>42</v>
       </c>
-      <c r="F46" t="s" s="51">
+      <c r="F46" t="s" s="53">
         <v>42</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" ht="21.6" customHeight="1">
-      <c r="A47" s="50">
+      <c r="A47" s="52">
         <v>160</v>
       </c>
-      <c r="B47" t="s" s="52">
+      <c r="B47" t="s" s="54">
         <v>43</v>
       </c>
-      <c r="C47" t="s" s="52">
+      <c r="C47" t="s" s="54">
         <v>43</v>
       </c>
-      <c r="D47" t="s" s="52">
+      <c r="D47" t="s" s="54">
         <v>43</v>
       </c>
-      <c r="E47" t="s" s="52">
+      <c r="E47" t="s" s="54">
         <v>43</v>
       </c>
-      <c r="F47" t="s" s="52">
+      <c r="F47" t="s" s="54">
         <v>43</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="15"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" ht="24.5" customHeight="1">
-      <c r="A48" t="s" s="54">
+      <c r="A48" t="s" s="56">
         <v>44</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" t="s" s="20">
+      <c r="B48" s="23"/>
+      <c r="C48" t="s" s="22">
         <v>45</v>
       </c>
-      <c r="D48" t="s" s="20">
+      <c r="D48" t="s" s="22">
         <v>45</v>
       </c>
-      <c r="E48" t="s" s="20">
+      <c r="E48" t="s" s="22">
         <v>45</v>
       </c>
-      <c r="F48" t="s" s="20">
+      <c r="F48" t="s" s="22">
         <v>45</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="15"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" ht="24" customHeight="1">
-      <c r="A49" s="55">
+      <c r="A49" s="57">
         <v>137</v>
       </c>
-      <c r="B49" t="s" s="23">
+      <c r="B49" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="C49" t="s" s="23">
+      <c r="C49" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="D49" t="s" s="23">
+      <c r="D49" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="E49" t="s" s="23">
+      <c r="E49" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="F49" t="s" s="23">
+      <c r="F49" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="G49" s="56"/>
-      <c r="H49" s="15"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" ht="24" customHeight="1">
-      <c r="A50" s="57"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="15"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" ht="21.6" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="15"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" ht="24.5" customHeight="1">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="15"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" ht="24" customHeight="1">
-      <c r="A53" s="15"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="15"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" ht="24" customHeight="1">
-      <c r="A54" s="15"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="15"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" ht="24" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" ht="24" customHeight="1">
-      <c r="A56" s="15"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="15"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" ht="24" customHeight="1">
-      <c r="A57" s="15"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="15"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" ht="24" customHeight="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="15"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" ht="24" customHeight="1">
-      <c r="A59" s="15"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="15"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" ht="24" customHeight="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="15"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" ht="24" customHeight="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="15"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" ht="24" customHeight="1">
-      <c r="A62" s="15"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="15"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" ht="24" customHeight="1">
-      <c r="A63" s="15"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="15"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" ht="24" customHeight="1">
-      <c r="A64" s="15"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="15"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" ht="24" customHeight="1">
-      <c r="A65" t="s" s="72">
+      <c r="A65" t="s" s="76">
         <v>46</v>
       </c>
-      <c r="B65" s="69"/>
-      <c r="C65" t="s" s="73">
+      <c r="B65" s="72"/>
+      <c r="C65" t="s" s="77">
         <v>46</v>
       </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" t="s" s="73">
+      <c r="D65" s="73"/>
+      <c r="E65" s="74"/>
+      <c r="F65" t="s" s="77">
         <v>46</v>
       </c>
-      <c r="G65" s="68"/>
-      <c r="H65" s="15"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" ht="24" customHeight="1">
-      <c r="A66" s="15"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="15"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" ht="21.6" customHeight="1">
-      <c r="A67" s="28"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="28"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" ht="24.5" customHeight="1">
       <c r="A68" s="5"/>
@@ -3258,450 +3375,456 @@
       <c r="H69" s="3"/>
     </row>
     <row r="70" ht="21.6" customHeight="1">
-      <c r="A70" t="s" s="41">
+      <c r="A70" t="s" s="42">
         <v>47</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" ht="24.5" customHeight="1">
-      <c r="A71" t="s" s="79">
+      <c r="A71" t="s" s="83">
         <v>48</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="15"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" ht="21.6" customHeight="1">
-      <c r="A72" s="82"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="15"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" ht="21.6" customHeight="1">
-      <c r="A73" t="s" s="85">
+      <c r="A73" s="89">
+        <v>1</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" t="s" s="22">
         <v>49</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" t="s" s="20">
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" ht="21.6" customHeight="1">
+      <c r="A74" s="89">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s" s="25">
         <v>50</v>
       </c>
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" ht="21.6" customHeight="1">
-      <c r="A74" t="s" s="85">
+      <c r="C74" t="s" s="25">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s" s="25">
+        <v>50</v>
+      </c>
+      <c r="E74" t="s" s="25">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s" s="25">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s" s="25">
         <v>51</v>
       </c>
-      <c r="B74" t="s" s="23">
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" ht="21.6" customHeight="1">
+      <c r="A75" s="89">
+        <v>3</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" ht="21.6" customHeight="1">
+      <c r="A76" s="90">
+        <v>4</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" ht="21.6" customHeight="1">
+      <c r="A77" s="89">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s" s="25">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s" s="25">
+        <v>32</v>
+      </c>
+      <c r="D77" t="s" s="25">
+        <v>32</v>
+      </c>
+      <c r="E77" t="s" s="25">
+        <v>32</v>
+      </c>
+      <c r="F77" t="s" s="25">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s" s="25">
         <v>52</v>
       </c>
-      <c r="C74" t="s" s="23">
-        <v>52</v>
-      </c>
-      <c r="D74" t="s" s="23">
-        <v>52</v>
-      </c>
-      <c r="E74" t="s" s="23">
-        <v>52</v>
-      </c>
-      <c r="F74" t="s" s="23">
-        <v>52</v>
-      </c>
-      <c r="G74" t="s" s="23">
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" ht="21.6" customHeight="1">
+      <c r="A78" s="89">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s" s="25">
         <v>53</v>
       </c>
-      <c r="H74" s="15"/>
-    </row>
-    <row r="75" ht="21.6" customHeight="1">
-      <c r="A75" t="s" s="85">
+      <c r="C78" t="s" s="25">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s" s="25">
+        <v>53</v>
+      </c>
+      <c r="E78" t="s" s="25">
+        <v>53</v>
+      </c>
+      <c r="F78" t="s" s="25">
+        <v>53</v>
+      </c>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" ht="21.6" customHeight="1">
+      <c r="A79" s="89">
+        <v>7</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" ht="21.6" customHeight="1">
+      <c r="A80" s="89">
+        <v>8</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" ht="21.6" customHeight="1">
+      <c r="A81" s="90">
+        <v>9</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" ht="21.6" customHeight="1">
+      <c r="A82" s="90">
+        <v>10</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" ht="21.6" customHeight="1">
+      <c r="A83" s="89">
+        <v>11</v>
+      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" ht="24.5" customHeight="1">
+      <c r="A84" s="92"/>
+      <c r="B84" s="23"/>
+      <c r="C84" t="s" s="22">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s" s="22">
+        <v>34</v>
+      </c>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" ht="24" customHeight="1">
+      <c r="A85" s="24"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" ht="24" customHeight="1">
+      <c r="A86" s="24"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" ht="24" customHeight="1">
+      <c r="A87" s="27">
+        <v>12</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" ht="24" customHeight="1">
+      <c r="A88" s="24"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" ht="24" customHeight="1">
+      <c r="A89" s="24"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" ht="24" customHeight="1">
+      <c r="A90" t="s" s="27">
         <v>54</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-    </row>
-    <row r="76" ht="21.6" customHeight="1">
-      <c r="A76" s="86"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" ht="21.6" customHeight="1">
-      <c r="A77" t="s" s="85">
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" ht="24" customHeight="1">
+      <c r="A91" s="24"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" ht="24" customHeight="1">
+      <c r="A92" s="24"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" ht="24" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" ht="24" customHeight="1">
+      <c r="A94" s="24"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" ht="21.6" customHeight="1">
+      <c r="A95" s="28"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" ht="21.6" customHeight="1">
+      <c r="A96" s="38"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" ht="24.5" customHeight="1">
+      <c r="A97" t="s" s="93">
         <v>55</v>
       </c>
-      <c r="B77" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="C77" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="D77" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="E77" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="F77" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s" s="23">
-        <v>56</v>
-      </c>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" ht="21.6" customHeight="1">
-      <c r="A78" t="s" s="85">
-        <v>57</v>
-      </c>
-      <c r="B78" t="s" s="23">
-        <v>58</v>
-      </c>
-      <c r="C78" t="s" s="23">
-        <v>58</v>
-      </c>
-      <c r="D78" t="s" s="23">
-        <v>58</v>
-      </c>
-      <c r="E78" t="s" s="23">
-        <v>58</v>
-      </c>
-      <c r="F78" t="s" s="23">
-        <v>58</v>
-      </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" ht="21.6" customHeight="1">
-      <c r="A79" t="s" s="85">
-        <v>57</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" ht="21.6" customHeight="1">
-      <c r="A80" t="s" s="85">
-        <v>57</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" ht="21.6" customHeight="1">
-      <c r="A81" s="86"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" ht="21.6" customHeight="1">
-      <c r="A82" s="86"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-    </row>
-    <row r="83" ht="21.6" customHeight="1">
-      <c r="A83" t="s" s="85">
-        <v>57</v>
-      </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" ht="24.5" customHeight="1">
-      <c r="A84" s="88"/>
-      <c r="B84" s="21"/>
-      <c r="C84" t="s" s="20">
-        <v>34</v>
-      </c>
-      <c r="D84" t="s" s="20">
-        <v>34</v>
-      </c>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" ht="24" customHeight="1">
-      <c r="A85" s="22"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" ht="24" customHeight="1">
-      <c r="A86" s="22"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-    </row>
-    <row r="87" ht="24" customHeight="1">
-      <c r="A87" t="s" s="25">
-        <v>59</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-    </row>
-    <row r="88" ht="24" customHeight="1">
-      <c r="A88" s="22"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-    </row>
-    <row r="89" ht="24" customHeight="1">
-      <c r="A89" s="22"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-    </row>
-    <row r="90" ht="24" customHeight="1">
-      <c r="A90" t="s" s="25">
-        <v>60</v>
-      </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="15"/>
-    </row>
-    <row r="91" ht="24" customHeight="1">
-      <c r="A91" s="22"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" ht="24" customHeight="1">
-      <c r="A92" s="22"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="15"/>
-    </row>
-    <row r="93" ht="24" customHeight="1">
-      <c r="A93" s="22"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="15"/>
-    </row>
-    <row r="94" ht="24" customHeight="1">
-      <c r="A94" s="22"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="15"/>
-    </row>
-    <row r="95" ht="21.6" customHeight="1">
-      <c r="A95" s="26"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="15"/>
-    </row>
-    <row r="96" ht="21.6" customHeight="1">
-      <c r="A96" s="36"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" ht="24.5" customHeight="1">
-      <c r="A97" t="s" s="89">
-        <v>61</v>
-      </c>
-      <c r="B97" s="90"/>
-      <c r="C97" s="90"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="90"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="15"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="94"/>
+      <c r="D97" s="94"/>
+      <c r="E97" s="94"/>
+      <c r="F97" s="94"/>
+      <c r="G97" s="95"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" ht="24" customHeight="1">
-      <c r="A98" s="92"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="93"/>
-      <c r="D98" s="93"/>
-      <c r="E98" s="93"/>
-      <c r="F98" s="93"/>
-      <c r="G98" s="94"/>
-      <c r="H98" s="15"/>
+      <c r="A98" s="96"/>
+      <c r="B98" s="97"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="97"/>
+      <c r="F98" s="97"/>
+      <c r="G98" s="98"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" ht="24" customHeight="1">
-      <c r="A99" s="92"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="93"/>
-      <c r="D99" s="93"/>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="94"/>
-      <c r="H99" s="15"/>
+      <c r="A99" s="96"/>
+      <c r="B99" s="97"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="98"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" ht="24" customHeight="1">
-      <c r="A100" s="92"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="94"/>
-      <c r="H100" s="15"/>
+      <c r="A100" s="96"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="97"/>
+      <c r="D100" s="97"/>
+      <c r="E100" s="97"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="98"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" ht="21.6" customHeight="1">
-      <c r="A101" s="95"/>
-      <c r="B101" s="96"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="96"/>
-      <c r="G101" s="97"/>
-      <c r="H101" s="15"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="100"/>
+      <c r="E101" s="100"/>
+      <c r="F101" s="100"/>
+      <c r="G101" s="101"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" ht="24.5" customHeight="1">
-      <c r="A102" s="98"/>
+      <c r="A102" s="102"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="98"/>
+      <c r="D102" s="102"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="15"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" ht="24" customHeight="1">
-      <c r="A103" s="69"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="15"/>
+      <c r="A103" s="72"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" ht="24" customHeight="1">
-      <c r="A104" s="69"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="15"/>
+      <c r="A104" s="72"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" ht="24" customHeight="1">
-      <c r="A105" s="69"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="15"/>
+      <c r="A105" s="72"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" ht="24" customHeight="1">
-      <c r="A106" s="69"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="15"/>
+      <c r="A106" s="72"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" ht="24" customHeight="1">
-      <c r="A107" s="69"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="15"/>
+      <c r="A107" s="72"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3727,83 +3850,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="99" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="99" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="99" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="99" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="99" customWidth="1"/>
-    <col min="6" max="256" width="6.625" style="99" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="103" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="103" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="103" customWidth="1"/>
+    <col min="6" max="256" width="6.625" style="103" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" s="100"/>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3822,83 +3945,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="101" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="101" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="101" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="101" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="101" customWidth="1"/>
-    <col min="6" max="256" width="6.625" style="101" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="105" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="105" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="105" customWidth="1"/>
+    <col min="6" max="256" width="6.625" style="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" s="100"/>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
